--- a/src/main/java/Models/NutrientSensorData.xlsx
+++ b/src/main/java/Models/NutrientSensorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratimasingh/Desktop/564-SoftwareDesign/greenhouse/src/main/java/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F5DA4-C5AC-7C4F-80E9-F1977A874F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF56DB6-4A92-7F4D-A80A-5642A7A9ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{762F17CD-487D-6840-BD50-5D408313316F}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
